--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H2">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I2">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J2">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.125868333333333</v>
+        <v>5.087898333333333</v>
       </c>
       <c r="N2">
-        <v>6.377605</v>
+        <v>15.263695</v>
       </c>
       <c r="O2">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="P2">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="Q2">
-        <v>58.98350447592056</v>
+        <v>241.5478936645927</v>
       </c>
       <c r="R2">
-        <v>530.851540283285</v>
+        <v>2173.931042981334</v>
       </c>
       <c r="S2">
-        <v>0.00475740392961415</v>
+        <v>0.01134538748955636</v>
       </c>
       <c r="T2">
-        <v>0.00475740392961415</v>
+        <v>0.01134538748955636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H3">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I3">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J3">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>65.182619</v>
       </c>
       <c r="O3">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259805</v>
       </c>
       <c r="P3">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259804</v>
       </c>
       <c r="Q3">
-        <v>602.8437476981915</v>
+        <v>1031.514605276879</v>
       </c>
       <c r="R3">
-        <v>5425.593729283723</v>
+        <v>9283.631447491907</v>
       </c>
       <c r="S3">
-        <v>0.04862327594342107</v>
+        <v>0.04844974104495139</v>
       </c>
       <c r="T3">
-        <v>0.04862327594342108</v>
+        <v>0.04844974104495137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H4">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I4">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J4">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.311063</v>
+        <v>9.259942666666667</v>
       </c>
       <c r="N4">
-        <v>15.933189</v>
+        <v>27.779828</v>
       </c>
       <c r="O4">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="P4">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="Q4">
-        <v>147.3586596688237</v>
+        <v>439.6156330275649</v>
       </c>
       <c r="R4">
-        <v>1326.227937019413</v>
+        <v>3956.540697248084</v>
       </c>
       <c r="S4">
-        <v>0.01188543598417979</v>
+        <v>0.02064853320596538</v>
       </c>
       <c r="T4">
-        <v>0.01188543598417979</v>
+        <v>0.02064853320596537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H5">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I5">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J5">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.547971666666667</v>
+        <v>20.09556833333333</v>
       </c>
       <c r="N5">
-        <v>28.643915</v>
+        <v>60.286705</v>
       </c>
       <c r="O5">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474593</v>
       </c>
       <c r="P5">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474592</v>
       </c>
       <c r="Q5">
-        <v>264.9142567798394</v>
+        <v>954.0367917944294</v>
       </c>
       <c r="R5">
-        <v>2384.228311018555</v>
+        <v>8586.331126149864</v>
       </c>
       <c r="S5">
-        <v>0.02136706079798509</v>
+        <v>0.04481064569840889</v>
       </c>
       <c r="T5">
-        <v>0.02136706079798509</v>
+        <v>0.04481064569840888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H6">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I6">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J6">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.234847</v>
+        <v>2.532564</v>
       </c>
       <c r="N6">
-        <v>6.704540999999999</v>
+        <v>7.597692</v>
       </c>
       <c r="O6">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="P6">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="Q6">
-        <v>62.007183587333</v>
+        <v>120.233436223164</v>
       </c>
       <c r="R6">
-        <v>558.0646522859969</v>
+        <v>1082.100926008476</v>
       </c>
       <c r="S6">
-        <v>0.005001283350044284</v>
+        <v>0.005647306223447369</v>
       </c>
       <c r="T6">
-        <v>0.005001283350044285</v>
+        <v>0.005647306223447369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H7">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I7">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J7">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.186735666666666</v>
+        <v>6.523371</v>
       </c>
       <c r="N7">
-        <v>9.560206999999998</v>
+        <v>19.570113</v>
       </c>
       <c r="O7">
-        <v>0.07220586933999432</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="P7">
-        <v>0.07220586933999433</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="Q7">
-        <v>88.41791117123542</v>
+        <v>309.696936025521</v>
       </c>
       <c r="R7">
-        <v>795.7612005411189</v>
+        <v>2787.272424229689</v>
       </c>
       <c r="S7">
-        <v>0.007131480602785008</v>
+        <v>0.0145463149780839</v>
       </c>
       <c r="T7">
-        <v>0.007131480602785011</v>
+        <v>0.0145463149780839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>267.659393</v>
       </c>
       <c r="I8">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J8">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.125868333333333</v>
+        <v>5.087898333333333</v>
       </c>
       <c r="N8">
-        <v>6.377605</v>
+        <v>15.263695</v>
       </c>
       <c r="O8">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="P8">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="Q8">
-        <v>189.6695425659739</v>
+        <v>453.9412598485706</v>
       </c>
       <c r="R8">
-        <v>1707.025883093765</v>
+        <v>4085.471338637135</v>
       </c>
       <c r="S8">
-        <v>0.01529808435678575</v>
+        <v>0.0213214009542587</v>
       </c>
       <c r="T8">
-        <v>0.01529808435678575</v>
+        <v>0.0213214009542587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>267.659393</v>
       </c>
       <c r="I9">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J9">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>65.182619</v>
       </c>
       <c r="O9">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259805</v>
       </c>
       <c r="P9">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259804</v>
       </c>
       <c r="Q9">
         <v>1938.526692854475</v>
@@ -1013,10 +1013,10 @@
         <v>17446.74023569027</v>
       </c>
       <c r="S9">
-        <v>0.1563548078092365</v>
+        <v>0.09105165917870359</v>
       </c>
       <c r="T9">
-        <v>0.1563548078092365</v>
+        <v>0.09105165917870355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>267.659393</v>
       </c>
       <c r="I10">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J10">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.311063</v>
+        <v>9.259942666666667</v>
       </c>
       <c r="N10">
-        <v>15.933189</v>
+        <v>27.779828</v>
       </c>
       <c r="O10">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="P10">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="Q10">
-        <v>473.8519662549197</v>
+        <v>826.170211124934</v>
       </c>
       <c r="R10">
-        <v>4264.667696294277</v>
+        <v>7435.531900124405</v>
       </c>
       <c r="S10">
-        <v>0.0382192483533569</v>
+        <v>0.03880481438002677</v>
       </c>
       <c r="T10">
-        <v>0.03821924835335691</v>
+        <v>0.03880481438002677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>267.659393</v>
       </c>
       <c r="I11">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J11">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.547971666666667</v>
+        <v>20.09556833333333</v>
       </c>
       <c r="N11">
-        <v>28.643915</v>
+        <v>60.286705</v>
       </c>
       <c r="O11">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474593</v>
       </c>
       <c r="P11">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474592</v>
       </c>
       <c r="Q11">
-        <v>851.8681002270663</v>
+        <v>1792.922540696674</v>
       </c>
       <c r="R11">
-        <v>7666.812902043595</v>
+        <v>16136.30286627007</v>
       </c>
       <c r="S11">
-        <v>0.06870871243650253</v>
+        <v>0.08421270272474085</v>
       </c>
       <c r="T11">
-        <v>0.06870871243650253</v>
+        <v>0.08421270272474081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>267.659393</v>
       </c>
       <c r="I12">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J12">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.234847</v>
+        <v>2.532564</v>
       </c>
       <c r="N12">
-        <v>6.704540999999999</v>
+        <v>7.597692</v>
       </c>
       <c r="O12">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="P12">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="Q12">
-        <v>199.392597155957</v>
+        <v>225.954847657884</v>
       </c>
       <c r="R12">
-        <v>1794.533374403613</v>
+        <v>2033.593628920956</v>
       </c>
       <c r="S12">
-        <v>0.01608231205782244</v>
+        <v>0.01061298967641608</v>
       </c>
       <c r="T12">
-        <v>0.01608231205782244</v>
+        <v>0.01061298967641608</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>267.659393</v>
       </c>
       <c r="I13">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J13">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.186735666666666</v>
+        <v>6.523371</v>
       </c>
       <c r="N13">
-        <v>9.560206999999998</v>
+        <v>19.570113</v>
       </c>
       <c r="O13">
-        <v>0.07220586933999432</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="P13">
-        <v>0.07220586933999433</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="Q13">
-        <v>284.3199113971501</v>
+        <v>582.0138407246011</v>
       </c>
       <c r="R13">
-        <v>2558.879202574351</v>
+        <v>5238.124566521409</v>
       </c>
       <c r="S13">
-        <v>0.02293225327600778</v>
+        <v>0.02733690800249551</v>
       </c>
       <c r="T13">
-        <v>0.02293225327600778</v>
+        <v>0.02733690800249551</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H14">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I14">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J14">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.125868333333333</v>
+        <v>5.087898333333333</v>
       </c>
       <c r="N14">
-        <v>6.377605</v>
+        <v>15.263695</v>
       </c>
       <c r="O14">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="P14">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="Q14">
-        <v>97.21919374631391</v>
+        <v>249.8658747822327</v>
       </c>
       <c r="R14">
-        <v>874.9727437168251</v>
+        <v>2248.792873040095</v>
       </c>
       <c r="S14">
-        <v>0.007841361385223367</v>
+        <v>0.01173607903100892</v>
       </c>
       <c r="T14">
-        <v>0.007841361385223367</v>
+        <v>0.01173607903100892</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H15">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I15">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J15">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>65.182619</v>
       </c>
       <c r="O15">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259805</v>
       </c>
       <c r="P15">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259804</v>
       </c>
       <c r="Q15">
-        <v>993.6334510295263</v>
+        <v>1067.036003866167</v>
       </c>
       <c r="R15">
-        <v>8942.701059265735</v>
+        <v>9603.3240347955</v>
       </c>
       <c r="S15">
-        <v>0.08014301161867614</v>
+        <v>0.05011816391982048</v>
       </c>
       <c r="T15">
-        <v>0.08014301161867614</v>
+        <v>0.05011816391982047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H16">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I16">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J16">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.311063</v>
+        <v>9.259942666666667</v>
       </c>
       <c r="N16">
-        <v>15.933189</v>
+        <v>27.779828</v>
       </c>
       <c r="O16">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="P16">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="Q16">
-        <v>242.8829926575317</v>
+        <v>454.7543058558209</v>
       </c>
       <c r="R16">
-        <v>2185.946933917785</v>
+        <v>4092.788752702388</v>
       </c>
       <c r="S16">
-        <v>0.0195900958068218</v>
+        <v>0.02135958933114391</v>
       </c>
       <c r="T16">
-        <v>0.0195900958068218</v>
+        <v>0.02135958933114391</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H17">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I17">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J17">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.547971666666667</v>
+        <v>20.09556833333333</v>
       </c>
       <c r="N17">
-        <v>28.643915</v>
+        <v>60.286705</v>
       </c>
       <c r="O17">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474593</v>
       </c>
       <c r="P17">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474592</v>
       </c>
       <c r="Q17">
-        <v>436.6432731468862</v>
+        <v>986.8901522575893</v>
       </c>
       <c r="R17">
-        <v>3929.789458321975</v>
+        <v>8882.011370318305</v>
       </c>
       <c r="S17">
-        <v>0.03521812482940232</v>
+        <v>0.04635375211566538</v>
       </c>
       <c r="T17">
-        <v>0.03521812482940232</v>
+        <v>0.04635375211566537</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H18">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I18">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J18">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.234847</v>
+        <v>2.532564</v>
       </c>
       <c r="N18">
-        <v>6.704540999999999</v>
+        <v>7.597692</v>
       </c>
       <c r="O18">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="P18">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="Q18">
-        <v>102.202954002185</v>
+        <v>124.373813673948</v>
       </c>
       <c r="R18">
-        <v>919.8265860196649</v>
+        <v>1119.364323065532</v>
       </c>
       <c r="S18">
-        <v>0.008243334120417752</v>
+        <v>0.005841777745510788</v>
       </c>
       <c r="T18">
-        <v>0.008243334120417752</v>
+        <v>0.005841777745510788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H19">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I19">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J19">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.186735666666666</v>
+        <v>6.523371</v>
       </c>
       <c r="N19">
-        <v>9.560206999999998</v>
+        <v>19.570113</v>
       </c>
       <c r="O19">
-        <v>0.07220586933999432</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="P19">
-        <v>0.07220586933999433</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="Q19">
-        <v>145.7342711861061</v>
+        <v>320.361708245097</v>
       </c>
       <c r="R19">
-        <v>1311.608440674955</v>
+        <v>2883.255374205873</v>
       </c>
       <c r="S19">
-        <v>0.01175441846971428</v>
+        <v>0.01504723416012802</v>
       </c>
       <c r="T19">
-        <v>0.01175441846971428</v>
+        <v>0.01504723416012802</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H20">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I20">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J20">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.125868333333333</v>
+        <v>5.087898333333333</v>
       </c>
       <c r="N20">
-        <v>6.377605</v>
+        <v>15.263695</v>
       </c>
       <c r="O20">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="P20">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="Q20">
-        <v>81.63682829819832</v>
+        <v>199.7049516285811</v>
       </c>
       <c r="R20">
-        <v>734.7314546837849</v>
+        <v>1797.34456465723</v>
       </c>
       <c r="S20">
-        <v>0.006584542088468759</v>
+        <v>0.009380044782984105</v>
       </c>
       <c r="T20">
-        <v>0.006584542088468759</v>
+        <v>0.009380044782984105</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H21">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I21">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J21">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>65.182619</v>
       </c>
       <c r="O21">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259805</v>
       </c>
       <c r="P21">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259804</v>
       </c>
       <c r="Q21">
-        <v>834.3731346375137</v>
+        <v>852.8270366001963</v>
       </c>
       <c r="R21">
-        <v>7509.358211737623</v>
+        <v>7675.443329401766</v>
       </c>
       <c r="S21">
-        <v>0.06729762947722906</v>
+        <v>0.0400568725523008</v>
       </c>
       <c r="T21">
-        <v>0.06729762947722906</v>
+        <v>0.04005687255230079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H22">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I22">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J22">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.311063</v>
+        <v>9.259942666666667</v>
       </c>
       <c r="N22">
-        <v>15.933189</v>
+        <v>27.779828</v>
       </c>
       <c r="O22">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="P22">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="Q22">
-        <v>203.953524032257</v>
+        <v>363.4617441576436</v>
       </c>
       <c r="R22">
-        <v>1835.581716290313</v>
+        <v>3271.155697418792</v>
       </c>
       <c r="S22">
-        <v>0.01645018052607953</v>
+        <v>0.01707162195678018</v>
       </c>
       <c r="T22">
-        <v>0.01645018052607953</v>
+        <v>0.01707162195678018</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H23">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I23">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J23">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.547971666666667</v>
+        <v>20.09556833333333</v>
       </c>
       <c r="N23">
-        <v>28.643915</v>
+        <v>60.286705</v>
       </c>
       <c r="O23">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474593</v>
       </c>
       <c r="P23">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474592</v>
       </c>
       <c r="Q23">
-        <v>366.6577611255616</v>
+        <v>788.7705765787077</v>
       </c>
       <c r="R23">
-        <v>3299.919850130055</v>
+        <v>7098.93518920837</v>
       </c>
       <c r="S23">
-        <v>0.0295733373101692</v>
+        <v>0.03704817167262264</v>
       </c>
       <c r="T23">
-        <v>0.0295733373101692</v>
+        <v>0.03704817167262264</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H24">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I24">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J24">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.234847</v>
+        <v>2.532564</v>
       </c>
       <c r="N24">
-        <v>6.704540999999999</v>
+        <v>7.597692</v>
       </c>
       <c r="O24">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="P24">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="Q24">
-        <v>85.82178771423298</v>
+        <v>99.40559696383201</v>
       </c>
       <c r="R24">
-        <v>772.3960894280968</v>
+        <v>894.650372674488</v>
       </c>
       <c r="S24">
-        <v>0.00692208633152483</v>
+        <v>0.004669032708483765</v>
       </c>
       <c r="T24">
-        <v>0.00692208633152483</v>
+        <v>0.004669032708483765</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H25">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I25">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J25">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.186735666666666</v>
+        <v>6.523371</v>
       </c>
       <c r="N25">
-        <v>9.560206999999998</v>
+        <v>19.570113</v>
       </c>
       <c r="O25">
-        <v>0.07220586933999432</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="P25">
-        <v>0.07220586933999433</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="Q25">
-        <v>122.3758726597576</v>
+        <v>256.048648117698</v>
       </c>
       <c r="R25">
-        <v>1101.382853937819</v>
+        <v>2304.437833059282</v>
       </c>
       <c r="S25">
-        <v>0.009870411442222218</v>
+        <v>0.01202648089784678</v>
       </c>
       <c r="T25">
-        <v>0.00987041144222222</v>
+        <v>0.01202648089784678</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H26">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I26">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J26">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.125868333333333</v>
+        <v>5.087898333333333</v>
       </c>
       <c r="N26">
-        <v>6.377605</v>
+        <v>15.263695</v>
       </c>
       <c r="O26">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="P26">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="Q26">
-        <v>73.60242568674668</v>
+        <v>174.6718677130522</v>
       </c>
       <c r="R26">
-        <v>662.42183118072</v>
+        <v>1572.04680941747</v>
       </c>
       <c r="S26">
-        <v>0.005936515171529187</v>
+        <v>0.008204252964759332</v>
       </c>
       <c r="T26">
-        <v>0.005936515171529187</v>
+        <v>0.008204252964759332</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H27">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I27">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J27">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>65.182619</v>
       </c>
       <c r="O27">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259805</v>
       </c>
       <c r="P27">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259804</v>
       </c>
       <c r="Q27">
-        <v>752.2571358707575</v>
+        <v>745.9248761953305</v>
       </c>
       <c r="R27">
-        <v>6770.314222836817</v>
+        <v>6713.323885757974</v>
       </c>
       <c r="S27">
-        <v>0.06067443916854471</v>
+        <v>0.03503572989250166</v>
       </c>
       <c r="T27">
-        <v>0.06067443916854472</v>
+        <v>0.03503572989250165</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H28">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I28">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J28">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.311063</v>
+        <v>9.259942666666667</v>
       </c>
       <c r="N28">
-        <v>15.933189</v>
+        <v>27.779828</v>
       </c>
       <c r="O28">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="P28">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="Q28">
-        <v>183.881152772144</v>
+        <v>317.9016903513431</v>
       </c>
       <c r="R28">
-        <v>1654.930374949296</v>
+        <v>2861.115213162088</v>
       </c>
       <c r="S28">
-        <v>0.01483121300697392</v>
+        <v>0.01493168831200468</v>
       </c>
       <c r="T28">
-        <v>0.01483121300697393</v>
+        <v>0.01493168831200468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H29">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I29">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J29">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.547971666666667</v>
+        <v>20.09556833333333</v>
       </c>
       <c r="N29">
-        <v>28.643915</v>
+        <v>60.286705</v>
       </c>
       <c r="O29">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474593</v>
       </c>
       <c r="P29">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474592</v>
       </c>
       <c r="Q29">
-        <v>330.5726248591734</v>
+        <v>689.8979153223255</v>
       </c>
       <c r="R29">
-        <v>2975.15362373256</v>
+        <v>6209.08123790093</v>
       </c>
       <c r="S29">
-        <v>0.0266628359657728</v>
+        <v>0.03240417069600914</v>
       </c>
       <c r="T29">
-        <v>0.0266628359657728</v>
+        <v>0.03240417069600914</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H30">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I30">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J30">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.234847</v>
+        <v>2.532564</v>
       </c>
       <c r="N30">
-        <v>6.704540999999999</v>
+        <v>7.597692</v>
       </c>
       <c r="O30">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="P30">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="Q30">
-        <v>77.375516469936</v>
+        <v>86.94507142264801</v>
       </c>
       <c r="R30">
-        <v>696.379648229424</v>
+        <v>782.5056428038321</v>
       </c>
       <c r="S30">
-        <v>0.006240839525909719</v>
+        <v>0.004083767863307559</v>
       </c>
       <c r="T30">
-        <v>0.00624083952590972</v>
+        <v>0.004083767863307559</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H31">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I31">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J31">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.186735666666666</v>
+        <v>6.523371</v>
       </c>
       <c r="N31">
-        <v>9.560206999999998</v>
+        <v>19.570113</v>
       </c>
       <c r="O31">
-        <v>0.07220586933999432</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="P31">
-        <v>0.07220586933999433</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="Q31">
-        <v>110.3320800312053</v>
+        <v>223.952862597522</v>
       </c>
       <c r="R31">
-        <v>992.9887202808479</v>
+        <v>2015.575763377698</v>
       </c>
       <c r="S31">
-        <v>0.008899001098133156</v>
+        <v>0.01051895740847319</v>
       </c>
       <c r="T31">
-        <v>0.00889900109813316</v>
+        <v>0.01051895740847319</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H32">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I32">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J32">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.125868333333333</v>
+        <v>5.087898333333333</v>
       </c>
       <c r="N32">
-        <v>6.377605</v>
+        <v>15.263695</v>
       </c>
       <c r="O32">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="P32">
-        <v>0.04816846678446341</v>
+        <v>0.07800308739772595</v>
       </c>
       <c r="Q32">
-        <v>96.09341324273166</v>
+        <v>340.985468329461</v>
       </c>
       <c r="R32">
-        <v>864.8407191845849</v>
+        <v>3068.869214965149</v>
       </c>
       <c r="S32">
-        <v>0.007750559852842198</v>
+        <v>0.01601592217515853</v>
       </c>
       <c r="T32">
-        <v>0.007750559852842199</v>
+        <v>0.01601592217515853</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H33">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I33">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J33">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>65.182619</v>
       </c>
       <c r="O33">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259805</v>
       </c>
       <c r="P33">
-        <v>0.4923081342017628</v>
+        <v>0.3331071229259804</v>
       </c>
       <c r="Q33">
-        <v>982.1273571835403</v>
+        <v>1456.156315142292</v>
       </c>
       <c r="R33">
-        <v>8839.146214651862</v>
+        <v>13105.40683628063</v>
       </c>
       <c r="S33">
-        <v>0.07921497018465537</v>
+        <v>0.06839495633770262</v>
       </c>
       <c r="T33">
-        <v>0.07921497018465538</v>
+        <v>0.06839495633770262</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H34">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I34">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J34">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.311063</v>
+        <v>9.259942666666667</v>
       </c>
       <c r="N34">
-        <v>15.933189</v>
+        <v>27.779828</v>
       </c>
       <c r="O34">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="P34">
-        <v>0.120339419753509</v>
+        <v>0.1419651238692725</v>
       </c>
       <c r="Q34">
-        <v>240.070451972417</v>
+        <v>620.5913876483954</v>
       </c>
       <c r="R34">
-        <v>2160.634067751753</v>
+        <v>5585.32248883556</v>
       </c>
       <c r="S34">
-        <v>0.01936324607609705</v>
+        <v>0.02914887668335157</v>
       </c>
       <c r="T34">
-        <v>0.01936324607609705</v>
+        <v>0.02914887668335157</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H35">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I35">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J35">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.547971666666667</v>
+        <v>20.09556833333333</v>
       </c>
       <c r="N35">
-        <v>28.643915</v>
+        <v>60.286705</v>
       </c>
       <c r="O35">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474593</v>
       </c>
       <c r="P35">
-        <v>0.216340376717356</v>
+        <v>0.3080872042474592</v>
       </c>
       <c r="Q35">
-        <v>431.5870238098283</v>
+        <v>1346.783353471428</v>
       </c>
       <c r="R35">
-        <v>3884.283214288455</v>
+        <v>12121.05018124285</v>
       </c>
       <c r="S35">
-        <v>0.03481030537752407</v>
+        <v>0.0632577613400124</v>
       </c>
       <c r="T35">
-        <v>0.03481030537752408</v>
+        <v>0.06325776134001239</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H36">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I36">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J36">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.234847</v>
+        <v>2.532564</v>
       </c>
       <c r="N36">
-        <v>6.704540999999999</v>
+        <v>7.597692</v>
       </c>
       <c r="O36">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="P36">
-        <v>0.05063773320291443</v>
+        <v>0.03882699654945958</v>
       </c>
       <c r="Q36">
-        <v>101.019462465273</v>
+        <v>169.72971255276</v>
       </c>
       <c r="R36">
-        <v>909.1751621874569</v>
+        <v>1527.56741297484</v>
       </c>
       <c r="S36">
-        <v>0.008147877817195401</v>
+        <v>0.00797212233229402</v>
       </c>
       <c r="T36">
-        <v>0.008147877817195401</v>
+        <v>0.00797212233229402</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H37">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I37">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J37">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.186735666666666</v>
+        <v>6.523371</v>
       </c>
       <c r="N37">
-        <v>9.560206999999998</v>
+        <v>19.570113</v>
       </c>
       <c r="O37">
-        <v>0.07220586933999432</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="P37">
-        <v>0.07220586933999433</v>
+        <v>0.1000104650101023</v>
       </c>
       <c r="Q37">
-        <v>144.0466949485043</v>
+        <v>437.1893009238899</v>
       </c>
       <c r="R37">
-        <v>1296.420254536539</v>
+        <v>3934.703708315009</v>
       </c>
       <c r="S37">
-        <v>0.01161830445113188</v>
+        <v>0.02053456956307488</v>
       </c>
       <c r="T37">
-        <v>0.01161830445113188</v>
+        <v>0.02053456956307488</v>
       </c>
     </row>
   </sheetData>
